--- a/Populationtotals.xlsx
+++ b/Populationtotals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tielqueen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tielqueen/Google Drive/SENIOR YEAR!/Winter Quarter/CS191/cpz_ripa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24461B27-D159-E641-8D14-E802E2897A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D61F57-F56A-B746-B32E-AEA3BC5770A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="1000" windowWidth="27240" windowHeight="16040" xr2:uid="{AF63FDAE-799B-C648-AF5B-46C899848C5E}"/>
+    <workbookView xWindow="8640" yWindow="6500" windowWidth="27240" windowHeight="16040" xr2:uid="{AF63FDAE-799B-C648-AF5B-46C899848C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Agency</t>
   </si>
@@ -79,6 +81,9 @@
   </si>
   <si>
     <t>SAN DIEGO PD</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -470,7 +475,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +508,9 @@
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -538,7 +545,10 @@
       <c r="H2">
         <v>1834714</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <f>SUM(B2:H2)</f>
+        <v>45259059</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -573,7 +583,10 @@
       <c r="H3">
         <v>219180</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I9" si="0">SUM(B3:H3)</f>
+        <v>10105722</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -600,7 +613,10 @@
       <c r="H4">
         <v>89323</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>4008967</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -635,7 +651,10 @@
       <c r="H5">
         <v>58644</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>2355002</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -662,7 +681,10 @@
       <c r="H6">
         <v>50718</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>2121220</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -689,7 +711,10 @@
       <c r="H7">
         <v>108408</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>3283665</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -716,7 +741,10 @@
       <c r="H8">
         <v>47202</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>1412180</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -743,7 +771,10 @@
       <c r="H9">
         <v>33533</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>876291</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
